--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H2">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N2">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O2">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P2">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q2">
-        <v>643.0298483203153</v>
+        <v>87.47807900046978</v>
       </c>
       <c r="R2">
-        <v>5787.268634882838</v>
+        <v>787.3027110042281</v>
       </c>
       <c r="S2">
-        <v>0.003666671158612747</v>
+        <v>0.0007330098802224566</v>
       </c>
       <c r="T2">
-        <v>0.003666671158612747</v>
+        <v>0.0007330098802224567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H3">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q3">
-        <v>2.030912178321778</v>
+        <v>0.4027754594275555</v>
       </c>
       <c r="R3">
-        <v>18.278209604896</v>
+        <v>3.624979134848</v>
       </c>
       <c r="S3">
-        <v>1.158062433552603E-05</v>
+        <v>3.374998567011879E-06</v>
       </c>
       <c r="T3">
-        <v>1.158062433552602E-05</v>
+        <v>3.374998567011879E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H4">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I4">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J4">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N4">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q4">
-        <v>12.207287811914</v>
+        <v>3.659209099729777</v>
       </c>
       <c r="R4">
-        <v>109.865590307226</v>
+        <v>32.932881897568</v>
       </c>
       <c r="S4">
-        <v>6.960813757207336E-05</v>
+        <v>3.066181213109908E-05</v>
       </c>
       <c r="T4">
-        <v>6.960813757207338E-05</v>
+        <v>3.066181213109909E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I5">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J5">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N5">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O5">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P5">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q5">
-        <v>160581.5980257335</v>
+        <v>110151.9075668569</v>
       </c>
       <c r="R5">
-        <v>1445234.382231602</v>
+        <v>991367.168101712</v>
       </c>
       <c r="S5">
-        <v>0.9156649813736193</v>
+        <v>0.9230019393935626</v>
       </c>
       <c r="T5">
-        <v>0.9156649813736192</v>
+        <v>0.9230019393935626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I6">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J6">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q6">
         <v>507.1726046570383</v>
@@ -818,10 +818,10 @@
         <v>4564.553441913344</v>
       </c>
       <c r="S6">
-        <v>0.002891988866134437</v>
+        <v>0.004249779309737363</v>
       </c>
       <c r="T6">
-        <v>0.002891988866134436</v>
+        <v>0.004249779309737363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I7">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J7">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N7">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q7">
-        <v>3048.483347262496</v>
+        <v>4607.655622148167</v>
       </c>
       <c r="R7">
-        <v>27436.35012536246</v>
+        <v>41468.90059933351</v>
       </c>
       <c r="S7">
-        <v>0.01738299706633618</v>
+        <v>0.03860918225786621</v>
       </c>
       <c r="T7">
-        <v>0.01738299706633618</v>
+        <v>0.03860918225786622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H8">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I8">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J8">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N8">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O8">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P8">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q8">
-        <v>10347.91271093104</v>
+        <v>3805.926114086958</v>
       </c>
       <c r="R8">
-        <v>93131.21439837934</v>
+        <v>34253.33502678262</v>
       </c>
       <c r="S8">
-        <v>0.05900564831962928</v>
+        <v>0.03189120608155352</v>
       </c>
       <c r="T8">
-        <v>0.05900564831962928</v>
+        <v>0.03189120608155352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H9">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I9">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J9">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q9">
-        <v>32.68231171497956</v>
+        <v>17.523631710528</v>
       </c>
       <c r="R9">
-        <v>294.140805434816</v>
+        <v>157.712685394752</v>
       </c>
       <c r="S9">
-        <v>0.0001863603844753611</v>
+        <v>0.0001468367313041658</v>
       </c>
       <c r="T9">
-        <v>0.000186360384475361</v>
+        <v>0.0001468367313041658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H10">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I10">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J10">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N10">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q10">
-        <v>196.444922494444</v>
+        <v>159.201935258448</v>
       </c>
       <c r="R10">
-        <v>1768.004302449996</v>
+        <v>1432.817417326032</v>
       </c>
       <c r="S10">
-        <v>0.001120164069285146</v>
+        <v>0.001334009535055652</v>
       </c>
       <c r="T10">
-        <v>0.001120164069285146</v>
+        <v>0.001334009535055652</v>
       </c>
     </row>
   </sheetData>
